--- a/medicine/Enfance/Louise_Warren/Louise_Warren.xlsx
+++ b/medicine/Enfance/Louise_Warren/Louise_Warren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise Warren, née le 21 mars 1956 à Montréal, est une poète et essayiste québécoise.
 </t>
@@ -511,16 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née le 21 mars 1956 à Montréa[1]l, Louise Warren est détentrice d’une maîtrise en création littéraire de l'Université du Québec à Montréal (UQAM)[2]. Elle a été chargée de cours de littérature d'enfance et de jeunesse à l'Université McGill et à l’UQAM[3].
-Le numéro 28 des Cahiers littéraires Contre-jour lui a été consacré à l’été 2015[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née le 21 mars 1956 à Montréal, Louise Warren est détentrice d’une maîtrise en création littéraire de l'Université du Québec à Montréal (UQAM). Elle a été chargée de cours de littérature d'enfance et de jeunesse à l'Université McGill et à l’UQAM.
+Le numéro 28 des Cahiers littéraires Contre-jour lui a été consacré à l’été 2015.
 Elle est membre de l'Union des écrivaines et des écrivains québécois.
-Écriture
-Avant tout poète, elle publie en trois décennies plus d’une dizaine de recueils, dont Le Lièvre de Mars (1994), La Lumière, l'Arbre, le Trait (2001) et La Pratique du bleu (2002).
-Essayiste, elle est attentive à l’expérience de la création et à l’œuvre d’art, aux liens entre art visuel et écriture, mais également aux rapports de l'artiste avec la mémoire et le deuil, thèmes développés dans Interroger l’intensité (1999) Bleu de Delft. Archives de solitude (2001), La Forme et le Deuil : Archives du lac (2008) et La Vie flottante. Une pensée de la création[5].
-Les deux derniers susmentionnés ont été nommés respectivement pour l'obtention du Prix du Gouverneur général 2008 et du Prix du Gouverneur général 2016.
-Elle signe également des livres d'artistes et un essai biographique, Léonise Valois, femme de lettres. Un portrait (1993), l'une des premières femmes écrivains du Québec.
 </t>
         </is>
       </c>
@@ -546,12 +555,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Œuvre</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poésie</t>
+          <t>Écriture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant tout poète, elle publie en trois décennies plus d’une dizaine de recueils, dont Le Lièvre de Mars (1994), La Lumière, l'Arbre, le Trait (2001) et La Pratique du bleu (2002).
+Essayiste, elle est attentive à l’expérience de la création et à l’œuvre d’art, aux liens entre art visuel et écriture, mais également aux rapports de l'artiste avec la mémoire et le deuil, thèmes développés dans Interroger l’intensité (1999) Bleu de Delft. Archives de solitude (2001), La Forme et le Deuil : Archives du lac (2008) et La Vie flottante. Une pensée de la création.
+Les deux derniers susmentionnés ont été nommés respectivement pour l'obtention du Prix du Gouverneur général 2008 et du Prix du Gouverneur général 2016.
+Elle signe également des livres d'artistes et un essai biographique, Léonise Valois, femme de lettres. Un portrait (1993), l'une des premières femmes écrivains du Québec.
+</t>
         </is>
       </c>
     </row>
